--- a/data/output/FV2410_FV2404/UTILMD/55224.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55224.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="298">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="298">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1004,6 +1004,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U144" totalsRowShown="0">
+  <autoFilter ref="A1:U144"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1293,7 +1323,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8252,5 +8285,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55224.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55224.xlsx
@@ -1855,7 +1855,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4377,7 +4377,7 @@
         <v>286</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5489,7 +5489,7 @@
         <v>289</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5905,7 +5905,7 @@
         <v>290</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6109,7 +6109,7 @@
         <v>292</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6509,7 +6509,7 @@
         <v>293</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6655,7 +6655,7 @@
         <v>294</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7611,7 +7611,7 @@
         <v>294</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7811,7 +7811,7 @@
         <v>294</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8011,7 +8011,7 @@
         <v>294</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8315,7 +8315,7 @@
         <v>298</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N142" s="2"/>
